--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H2">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.588395333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N2">
-        <v>19.765186</v>
+        <v>19.375401</v>
       </c>
       <c r="O2">
-        <v>0.6088932199877385</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P2">
-        <v>0.6088932199877384</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q2">
-        <v>4.922251645223112</v>
+        <v>7.625905953386999</v>
       </c>
       <c r="R2">
-        <v>44.30026480700801</v>
+        <v>68.633153580483</v>
       </c>
       <c r="S2">
-        <v>0.2830459255743763</v>
+        <v>0.4170344662248092</v>
       </c>
       <c r="T2">
-        <v>0.2830459255743762</v>
+        <v>0.4170344662248091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H3">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I3">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J3">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.350066</v>
       </c>
       <c r="O3">
-        <v>0.2264286991208885</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P3">
-        <v>0.2264286991208884</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q3">
-        <v>1.830434303072</v>
+        <v>2.892890426742</v>
       </c>
       <c r="R3">
-        <v>16.473908727648</v>
+        <v>26.036013840678</v>
       </c>
       <c r="S3">
-        <v>0.1052560918982879</v>
+        <v>0.1582021890038363</v>
       </c>
       <c r="T3">
-        <v>0.1052560918982879</v>
+        <v>0.1582021890038363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H4">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I4">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J4">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02679433333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N4">
-        <v>0.08038300000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O4">
-        <v>0.002476306759889555</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P4">
-        <v>0.002476306759889555</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q4">
-        <v>0.02001829651377778</v>
+        <v>0.031637703821</v>
       </c>
       <c r="R4">
-        <v>0.180164668624</v>
+        <v>0.284739334389</v>
       </c>
       <c r="S4">
-        <v>0.001151118974313983</v>
+        <v>0.001730156784809194</v>
       </c>
       <c r="T4">
-        <v>0.001151118974313983</v>
+        <v>0.001730156784809193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H5">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I5">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J5">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.706050333333333</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N5">
-        <v>5.118151</v>
+        <v>1.411378</v>
       </c>
       <c r="O5">
-        <v>0.157671546464246</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P5">
-        <v>0.1576715464642459</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q5">
-        <v>1.274606127169778</v>
+        <v>0.555500032886</v>
       </c>
       <c r="R5">
-        <v>11.471455144528</v>
+        <v>4.999500295974</v>
       </c>
       <c r="S5">
-        <v>0.07329411355017958</v>
+        <v>0.03037837879440218</v>
       </c>
       <c r="T5">
-        <v>0.07329411355017956</v>
+        <v>0.03037837879440217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H6">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I6">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J6">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,37 +815,37 @@
         <v>0.139771</v>
       </c>
       <c r="O6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q6">
-        <v>0.03480807287644445</v>
+        <v>0.055012048577</v>
       </c>
       <c r="R6">
-        <v>0.313272655888</v>
+        <v>0.495108437193</v>
       </c>
       <c r="S6">
-        <v>0.002001580560054236</v>
+        <v>0.003008418993687295</v>
       </c>
       <c r="T6">
-        <v>0.002001580560054236</v>
+        <v>0.003008418993687294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7471093333333334</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H7">
-        <v>2.241328</v>
+        <v>1.439786</v>
       </c>
       <c r="I7">
-        <v>0.4648531405557055</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J7">
-        <v>0.4648531405557055</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.002428</v>
+        <v>6.458467</v>
       </c>
       <c r="N7">
-        <v>0.007284000000000001</v>
+        <v>19.375401</v>
       </c>
       <c r="O7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q7">
-        <v>0.001813981461333334</v>
+        <v>3.099603456020667</v>
       </c>
       <c r="R7">
-        <v>0.016325833152</v>
+        <v>27.896431104186</v>
       </c>
       <c r="S7">
-        <v>0.0001043099984935005</v>
+        <v>0.1695066108461558</v>
       </c>
       <c r="T7">
-        <v>0.0001043099984935005</v>
+        <v>0.1695066108461557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>1.439786</v>
       </c>
       <c r="I8">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J8">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.588395333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N8">
-        <v>19.765186</v>
+        <v>7.350066</v>
       </c>
       <c r="O8">
-        <v>0.6088932199877385</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P8">
-        <v>0.6088932199877384</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q8">
-        <v>3.161959787799556</v>
+        <v>1.175835791764</v>
       </c>
       <c r="R8">
-        <v>28.457638090196</v>
+        <v>10.582522125876</v>
       </c>
       <c r="S8">
-        <v>0.1818232587997067</v>
+        <v>0.06430239958159116</v>
       </c>
       <c r="T8">
-        <v>0.1818232587997066</v>
+        <v>0.06430239958159113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>1.439786</v>
       </c>
       <c r="I9">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J9">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.450022</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N9">
-        <v>7.350066</v>
+        <v>0.080383</v>
       </c>
       <c r="O9">
-        <v>0.2264286991208885</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P9">
-        <v>0.2264286991208884</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q9">
-        <v>1.175835791764</v>
+        <v>0.01285936867088889</v>
       </c>
       <c r="R9">
-        <v>10.582522125876</v>
+        <v>0.115734318038</v>
       </c>
       <c r="S9">
-        <v>0.06761448905732155</v>
+        <v>0.0007032344723934508</v>
       </c>
       <c r="T9">
-        <v>0.06761448905732154</v>
+        <v>0.0007032344723934506</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1.439786</v>
       </c>
       <c r="I10">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J10">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02679433333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N10">
-        <v>0.08038300000000001</v>
+        <v>1.411378</v>
       </c>
       <c r="O10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q10">
-        <v>0.01285936867088889</v>
+        <v>0.2257869205675556</v>
       </c>
       <c r="R10">
-        <v>0.115734318038</v>
+        <v>2.032082285108</v>
       </c>
       <c r="S10">
-        <v>0.0007394566897623338</v>
+        <v>0.01234750709948277</v>
       </c>
       <c r="T10">
-        <v>0.0007394566897623338</v>
+        <v>0.01234750709948277</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,54 +1107,54 @@
         <v>1.439786</v>
       </c>
       <c r="I11">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J11">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.706050333333333</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N11">
-        <v>5.118151</v>
+        <v>0.139771</v>
       </c>
       <c r="O11">
-        <v>0.157671546464246</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P11">
-        <v>0.1576715464642459</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q11">
-        <v>0.818782461742889</v>
+        <v>0.02236003655622222</v>
       </c>
       <c r="R11">
-        <v>7.369042155686001</v>
+        <v>0.201240329006</v>
       </c>
       <c r="S11">
-        <v>0.04708272888749834</v>
+        <v>0.001222793195587438</v>
       </c>
       <c r="T11">
-        <v>0.04708272888749833</v>
+        <v>0.001222793195587438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4799286666666667</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H12">
-        <v>1.439786</v>
+        <v>0.614375</v>
       </c>
       <c r="I12">
-        <v>0.2986127170267525</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J12">
-        <v>0.2986127170267525</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04659033333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N12">
-        <v>0.139771</v>
+        <v>19.375401</v>
       </c>
       <c r="O12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q12">
-        <v>0.02236003655622223</v>
+        <v>1.322640221041667</v>
       </c>
       <c r="R12">
-        <v>0.201240329006</v>
+        <v>11.903761989375</v>
       </c>
       <c r="S12">
-        <v>0.00128577685561339</v>
+        <v>0.07233062693942499</v>
       </c>
       <c r="T12">
-        <v>0.00128577685561339</v>
+        <v>0.07233062693942496</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4799286666666667</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H13">
-        <v>1.439786</v>
+        <v>0.614375</v>
       </c>
       <c r="I13">
-        <v>0.2986127170267525</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J13">
-        <v>0.2986127170267525</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.002428</v>
+        <v>2.450022</v>
       </c>
       <c r="N13">
-        <v>0.007284000000000001</v>
+        <v>7.350066</v>
       </c>
       <c r="O13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q13">
-        <v>0.001165266802666667</v>
+        <v>0.5017440887500001</v>
       </c>
       <c r="R13">
-        <v>0.010487401224</v>
+        <v>4.51569679875</v>
       </c>
       <c r="S13">
-        <v>6.700673685019021E-05</v>
+        <v>0.02743865181557542</v>
       </c>
       <c r="T13">
-        <v>6.70067368501902E-05</v>
+        <v>0.0274386518155754</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H14">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I14">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J14">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.588395333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N14">
-        <v>19.765186</v>
+        <v>0.080383</v>
       </c>
       <c r="O14">
-        <v>0.6088932199877385</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P14">
-        <v>0.6088932199877384</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q14">
-        <v>2.504620212470444</v>
+        <v>0.005487256180555556</v>
       </c>
       <c r="R14">
-        <v>22.541581912234</v>
+        <v>0.049385305625</v>
       </c>
       <c r="S14">
-        <v>0.1440240356136555</v>
+        <v>0.0003000790943770299</v>
       </c>
       <c r="T14">
-        <v>0.1440240356136555</v>
+        <v>0.0003000790943770298</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H15">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I15">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J15">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.450022</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N15">
-        <v>7.350066</v>
+        <v>1.411378</v>
       </c>
       <c r="O15">
-        <v>0.2264286991208885</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P15">
-        <v>0.2264286991208884</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q15">
-        <v>0.931391380106</v>
+        <v>0.09634615097222222</v>
       </c>
       <c r="R15">
-        <v>8.382522420954</v>
+        <v>0.86711535875</v>
       </c>
       <c r="S15">
-        <v>0.05355811816527903</v>
+        <v>0.005268838337256183</v>
       </c>
       <c r="T15">
-        <v>0.05355811816527901</v>
+        <v>0.00526883833725618</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H16">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I16">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J16">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,60 +1429,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02679433333333334</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N16">
-        <v>0.08038300000000001</v>
+        <v>0.139771</v>
       </c>
       <c r="O16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q16">
-        <v>0.01018603551411111</v>
+        <v>0.00954131201388889</v>
       </c>
       <c r="R16">
-        <v>0.09167431962700001</v>
+        <v>0.085871808125</v>
       </c>
       <c r="S16">
-        <v>0.0005857310958132382</v>
+        <v>0.0005217814102505736</v>
       </c>
       <c r="T16">
-        <v>0.0005857310958132381</v>
+        <v>0.0005217814102505732</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3801563333333333</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H17">
-        <v>1.140469</v>
+        <v>0.207213</v>
       </c>
       <c r="I17">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="J17">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,122 +1491,122 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.706050333333333</v>
+        <v>6.458467</v>
       </c>
       <c r="N17">
-        <v>5.118151</v>
+        <v>19.375401</v>
       </c>
       <c r="O17">
-        <v>0.157671546464246</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P17">
-        <v>0.1576715464642459</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q17">
-        <v>0.6485658392021111</v>
+        <v>0.446092774157</v>
       </c>
       <c r="R17">
-        <v>5.837092552819</v>
+        <v>4.014834967413</v>
       </c>
       <c r="S17">
-        <v>0.03729470402656807</v>
+        <v>0.02439527357070042</v>
       </c>
       <c r="T17">
-        <v>0.03729470402656805</v>
+        <v>0.02439527357070041</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3801563333333333</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H18">
-        <v>1.140469</v>
+        <v>0.207213</v>
       </c>
       <c r="I18">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="J18">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04659033333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N18">
-        <v>0.139771</v>
+        <v>7.350066</v>
       </c>
       <c r="O18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q18">
-        <v>0.01771161028877778</v>
+        <v>0.169225469562</v>
       </c>
       <c r="R18">
-        <v>0.159404492599</v>
+        <v>1.523029226058</v>
       </c>
       <c r="S18">
-        <v>0.001018476804708858</v>
+        <v>0.009254356636680902</v>
       </c>
       <c r="T18">
-        <v>0.001018476804708858</v>
+        <v>0.009254356636680897</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3801563333333333</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H19">
-        <v>1.140469</v>
+        <v>0.207213</v>
       </c>
       <c r="I19">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="J19">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.002428</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N19">
-        <v>0.007284000000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O19">
-        <v>0.0002243934468610964</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P19">
-        <v>0.0002243934468610964</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q19">
-        <v>0.0009230195773333333</v>
+        <v>0.001850711397666667</v>
       </c>
       <c r="R19">
-        <v>0.008307176196</v>
+        <v>0.016656402579</v>
       </c>
       <c r="S19">
-        <v>5.307671151740576E-05</v>
+        <v>0.0001012090162899654</v>
       </c>
       <c r="T19">
-        <v>5.307671151740574E-05</v>
+        <v>0.0001012090162899654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.207213</v>
+      </c>
+      <c r="I20">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J20">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4704593333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.411378</v>
+      </c>
+      <c r="O20">
+        <v>0.04977176886736147</v>
+      </c>
+      <c r="P20">
+        <v>0.04977176886736145</v>
+      </c>
+      <c r="Q20">
+        <v>0.03249509661266667</v>
+      </c>
+      <c r="R20">
+        <v>0.292455869514</v>
+      </c>
+      <c r="S20">
+        <v>0.00177704463622033</v>
+      </c>
+      <c r="T20">
+        <v>0.001777044636220329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.207213</v>
+      </c>
+      <c r="I21">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J21">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04659033333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.139771</v>
+      </c>
+      <c r="O21">
+        <v>0.004928977145994893</v>
+      </c>
+      <c r="P21">
+        <v>0.004928977145994892</v>
+      </c>
+      <c r="Q21">
+        <v>0.003218040913666667</v>
+      </c>
+      <c r="R21">
+        <v>0.028962368223</v>
+      </c>
+      <c r="S21">
+        <v>0.0001759835464695863</v>
+      </c>
+      <c r="T21">
+        <v>0.0001759835464695862</v>
       </c>
     </row>
   </sheetData>
